--- a/OFFERS-170/ru/ru.xlsx
+++ b/OFFERS-170/ru/ru.xlsx
@@ -413,7 +413,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>39€</v>
+        <v>20€</v>
       </c>
     </row>
     <row r="8">
@@ -433,7 +433,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>49€</v>
+        <v>29€</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +683,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>39€</v>
+        <v>20€</v>
       </c>
     </row>
     <row r="62">
@@ -703,7 +703,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>49€</v>
+        <v>29€</v>
       </c>
     </row>
     <row r="66">
@@ -815,12 +815,12 @@
 				&lt;div class="price__item price__item--top"&gt;
 					&lt;span&gt;&lt;span data-translate="5"&gt;Кольцо&lt;/span&gt;&lt;/span&gt;
 					&lt;s&gt;&lt;span data-translate="6"&gt;68€&lt;/span&gt;&lt;/s&gt;
-					&lt;b class="new"&gt;&lt;span data-translate="7"&gt;39€&lt;/span&gt;&lt;/b&gt;
+					&lt;b class="new"&gt;&lt;span data-translate="7"&gt;20€&lt;/span&gt;&lt;/b&gt;
 				&lt;/div&gt;
 				&lt;div class="price__item price__item--bottom"&gt;
 					&lt;p class="discount"&gt;&lt;span data-translate="8"&gt;Скидка &lt;/span&gt;&lt;b&gt;&lt;span data-translate="9"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
 					&lt;span&gt;&lt;span data-translate="10"&gt;Кольцо + накладка&lt;/span&gt;&lt;/span&gt;
-					&lt;b class="new"&gt;&lt;span data-translate="11"&gt;49€&lt;/span&gt;&lt;/b&gt;&lt;s&gt;&lt;span data-translate="12"&gt;98€&lt;/span&gt;&lt;/s&gt;
+					&lt;b class="new"&gt;&lt;span data-translate="11"&gt;29€&lt;/span&gt;&lt;/b&gt;&lt;s&gt;&lt;span data-translate="12"&gt;98€&lt;/span&gt;&lt;/s&gt;
 				&lt;/div&gt;
 			&lt;/div&gt;
 			&lt;p class="intro__text"&gt;&lt;span&gt;&lt;span data-translate="13"&gt;Универсальная силиконовая накладка под любой размер пальца&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
@@ -1026,12 +1026,12 @@
 				&lt;div class="price__item price__item--top"&gt;
 					&lt;span&gt;&lt;span data-translate="59"&gt;Кольцо&lt;/span&gt;&lt;/span&gt;
 					&lt;s&gt;&lt;span data-translate="60"&gt;68€&lt;/span&gt;&lt;/s&gt;
-					&lt;b class="new"&gt;&lt;span data-translate="61"&gt;39€&lt;/span&gt;&lt;/b&gt;
+					&lt;b class="new"&gt;&lt;span data-translate="61"&gt;20€&lt;/span&gt;&lt;/b&gt;
 				&lt;/div&gt;
 				&lt;div class="price__item price__item--bottom"&gt;
 					&lt;p class="discount"&gt;&lt;span data-translate="62"&gt;Скидка &lt;/span&gt;&lt;b&gt;&lt;span data-translate="63"&gt;50%&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
 					&lt;span&gt;&lt;span data-translate="64"&gt;Кольцо + накладка&lt;/span&gt;&lt;/span&gt;
-					&lt;b class="new"&gt;&lt;span data-translate="65"&gt;49€&lt;/span&gt;&lt;/b&gt;&lt;s&gt;&lt;span data-translate="66"&gt;98€&lt;/span&gt;&lt;/s&gt;
+					&lt;b class="new"&gt;&lt;span data-translate="65"&gt;29€&lt;/span&gt;&lt;/b&gt;&lt;s&gt;&lt;span data-translate="66"&gt;98€&lt;/span&gt;&lt;/s&gt;
 				&lt;/div&gt;
 			&lt;/div&gt;
 			&lt;p class="intro__text"&gt;&lt;span&gt;&lt;span data-translate="67"&gt;Универсальная силиконовая накладка под любой размер пальца&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
